--- a/dados_producao.xlsx
+++ b/dados_producao.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>diametro</t>
   </si>
@@ -157,37 +157,31 @@
     <t>furo_8_y</t>
   </si>
   <si>
-    <t>ch.base.1</t>
+    <t>Screenshot_20251114-073135 - Daniela Balera Comercial NoroAço</t>
   </si>
   <si>
-    <t>ct.2</t>
+    <t>12.70</t>
   </si>
   <si>
-    <t>ch.topo.1</t>
+    <t>CHAPA LISA</t>
   </si>
   <si>
-    <t>ch.base.2</t>
+    <t>37.5</t>
   </si>
   <si>
-    <t>ch.topo.2</t>
+    <t>262.5</t>
   </si>
   <si>
-    <t>TERÇA</t>
+    <t>6.35</t>
   </si>
   <si>
-    <t>DESENHO CHAPAS CORTADAS J.P. 12-11-25 - RODRIGO KASCHUK- NOROAÇO</t>
+    <t>CHAPA CORTADA</t>
   </si>
   <si>
-    <t>10</t>
+    <t>3.17</t>
   </si>
   <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4.75</t>
+    <t>PERFIL U</t>
   </si>
 </sst>
 </file>
@@ -709,7 +703,7 @@
   <dimension ref="A1:BE274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,7 +923,7 @@
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>32</v>
@@ -941,83 +935,59 @@
         <v>300</v>
       </c>
       <c r="E2" s="26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G2" s="11">
-        <v>18</v>
-      </c>
-      <c r="H2" s="11">
         <v>30</v>
       </c>
-      <c r="I2" s="11">
+      <c r="H2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="10">
         <v>30</v>
       </c>
-      <c r="J2" s="10">
-        <v>18</v>
-      </c>
-      <c r="K2" s="10">
-        <v>270</v>
-      </c>
-      <c r="L2" s="10">
+      <c r="K2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="12">
         <v>30</v>
       </c>
-      <c r="M2" s="12">
-        <v>18</v>
-      </c>
-      <c r="N2" s="12">
+      <c r="N2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="13">
         <v>30</v>
       </c>
-      <c r="O2" s="12">
-        <v>270</v>
-      </c>
-      <c r="P2" s="13">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>270</v>
-      </c>
-      <c r="R2" s="13">
-        <v>270</v>
-      </c>
-      <c r="S2" s="18">
-        <v>0</v>
-      </c>
-      <c r="T2" s="18">
-        <v>0</v>
-      </c>
-      <c r="U2" s="18">
-        <v>0</v>
-      </c>
-      <c r="V2" s="20">
-        <v>0</v>
-      </c>
-      <c r="W2" s="20">
-        <v>0</v>
-      </c>
-      <c r="X2" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="27">
-        <v>0</v>
-      </c>
+      <c r="Q2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="27"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
@@ -1080,7 +1050,7 @@
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>32</v>
@@ -1089,86 +1059,38 @@
         <v>400</v>
       </c>
       <c r="D3" s="6">
-        <v>64</v>
+        <v>500</v>
       </c>
       <c r="E3" s="26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="11">
-        <v>15</v>
-      </c>
-      <c r="H3" s="11">
-        <v>40</v>
-      </c>
-      <c r="I3" s="11">
-        <v>35</v>
-      </c>
-      <c r="J3" s="10">
-        <v>15</v>
-      </c>
-      <c r="K3" s="10">
-        <v>120</v>
-      </c>
-      <c r="L3" s="10">
-        <v>35</v>
-      </c>
-      <c r="M3" s="12">
-        <v>15</v>
-      </c>
-      <c r="N3" s="12">
-        <v>200</v>
-      </c>
-      <c r="O3" s="12">
-        <v>35</v>
-      </c>
-      <c r="P3" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>280</v>
-      </c>
-      <c r="R3" s="13">
-        <v>35</v>
-      </c>
-      <c r="S3" s="18">
-        <v>15</v>
-      </c>
-      <c r="T3" s="18">
-        <v>360</v>
-      </c>
-      <c r="U3" s="18">
-        <v>35</v>
-      </c>
-      <c r="V3" s="20">
-        <v>0</v>
-      </c>
-      <c r="W3" s="20">
-        <v>0</v>
-      </c>
-      <c r="X3" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="27">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="27"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
@@ -1181,95 +1103,47 @@
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D4" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E4" s="26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="11">
-        <v>15</v>
-      </c>
-      <c r="H4" s="11">
-        <v>25</v>
-      </c>
-      <c r="I4" s="11">
-        <v>25</v>
-      </c>
-      <c r="J4" s="10">
-        <v>15</v>
-      </c>
-      <c r="K4" s="10">
-        <v>25</v>
-      </c>
-      <c r="L4" s="10">
-        <v>75</v>
-      </c>
-      <c r="M4" s="12">
-        <v>15</v>
-      </c>
-      <c r="N4" s="12">
-        <v>25</v>
-      </c>
-      <c r="O4" s="12">
-        <v>125</v>
-      </c>
-      <c r="P4" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>25</v>
-      </c>
-      <c r="R4" s="13">
-        <v>175</v>
-      </c>
-      <c r="S4" s="18">
-        <v>15</v>
-      </c>
-      <c r="T4" s="18">
-        <v>215</v>
-      </c>
-      <c r="U4" s="18">
-        <v>25</v>
-      </c>
-      <c r="V4" s="20">
-        <v>15</v>
-      </c>
-      <c r="W4" s="20">
-        <v>215</v>
-      </c>
-      <c r="X4" s="20">
-        <v>75</v>
-      </c>
-      <c r="Y4" s="22">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="22">
-        <v>215</v>
-      </c>
-      <c r="AA4" s="22">
-        <v>125</v>
-      </c>
-      <c r="AB4" s="23">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="23">
-        <v>215</v>
-      </c>
-      <c r="AD4" s="27">
-        <v>175</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="27"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
@@ -1281,96 +1155,36 @@
       <c r="AM4" s="9"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="6">
-        <v>300</v>
-      </c>
-      <c r="D5" s="6">
-        <v>300</v>
-      </c>
-      <c r="E5" s="26">
-        <v>1</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="11">
-        <v>18</v>
-      </c>
-      <c r="H5" s="11">
-        <v>30</v>
-      </c>
-      <c r="I5" s="11">
-        <v>30</v>
-      </c>
-      <c r="J5" s="10">
-        <v>18</v>
-      </c>
-      <c r="K5" s="10">
-        <v>270</v>
-      </c>
-      <c r="L5" s="10">
-        <v>30</v>
-      </c>
-      <c r="M5" s="12">
-        <v>18</v>
-      </c>
-      <c r="N5" s="12">
-        <v>30</v>
-      </c>
-      <c r="O5" s="12">
-        <v>270</v>
-      </c>
-      <c r="P5" s="13">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>270</v>
-      </c>
-      <c r="R5" s="13">
-        <v>270</v>
-      </c>
-      <c r="S5" s="18">
-        <v>0</v>
-      </c>
-      <c r="T5" s="18">
-        <v>0</v>
-      </c>
-      <c r="U5" s="18">
-        <v>0</v>
-      </c>
-      <c r="V5" s="20">
-        <v>0</v>
-      </c>
-      <c r="W5" s="20">
-        <v>0</v>
-      </c>
-      <c r="X5" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="27">
-        <v>0</v>
-      </c>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="27"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
@@ -1381,96 +1195,36 @@
       <c r="AL5" s="6"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="6">
-        <v>200</v>
-      </c>
-      <c r="D6" s="6">
-        <v>140</v>
-      </c>
-      <c r="E6" s="26">
-        <v>1</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>0</v>
-      </c>
-      <c r="R6" s="13">
-        <v>0</v>
-      </c>
-      <c r="S6" s="18">
-        <v>0</v>
-      </c>
-      <c r="T6" s="18">
-        <v>0</v>
-      </c>
-      <c r="U6" s="18">
-        <v>0</v>
-      </c>
-      <c r="V6" s="20">
-        <v>0</v>
-      </c>
-      <c r="W6" s="20">
-        <v>0</v>
-      </c>
-      <c r="X6" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="27">
-        <v>0</v>
-      </c>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="27"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
@@ -1487,78 +1241,30 @@
       <c r="D7" s="6"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>0</v>
-      </c>
-      <c r="R7" s="13">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
-        <v>0</v>
-      </c>
-      <c r="V7" s="20">
-        <v>0</v>
-      </c>
-      <c r="W7" s="20">
-        <v>0</v>
-      </c>
-      <c r="X7" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="27">
-        <v>0</v>
-      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="27"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
@@ -10051,20 +9757,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT6"/>
+  <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
@@ -10076,11 +9785,10 @@
         <v>300</v>
       </c>
       <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1" t="str">
-        <f>"10"</f>
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -10101,43 +9809,43 @@
         <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R1">
-        <v>18</v>
-      </c>
-      <c r="S1">
         <v>30</v>
       </c>
-      <c r="T1">
+      <c r="S1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1">
         <v>30</v>
       </c>
-      <c r="U1">
-        <v>18</v>
-      </c>
-      <c r="V1">
-        <v>270</v>
-      </c>
-      <c r="W1">
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1">
         <v>30</v>
       </c>
-      <c r="X1">
-        <v>18</v>
-      </c>
-      <c r="Y1">
+      <c r="Y1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1">
         <v>30</v>
       </c>
-      <c r="Z1">
-        <v>270</v>
-      </c>
-      <c r="AA1">
-        <v>18</v>
-      </c>
-      <c r="AB1">
-        <v>270</v>
-      </c>
-      <c r="AC1">
-        <v>270</v>
+      <c r="AB1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
       </c>
       <c r="AD1">
         <v>0</v>
@@ -10179,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="AQ1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT1">
         <v>0</v>
@@ -10187,7 +9895,7 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -10196,14 +9904,13 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>500</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="str">
-        <f>"7.9"</f>
-        <v>7.9</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -10224,52 +9931,52 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -10302,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -10310,23 +10017,22 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="str">
-        <f>"8"</f>
         <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -10350,82 +10056,82 @@
         <v>47</v>
       </c>
       <c r="R3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -10433,23 +10139,22 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="str">
-        <f>"4.75"</f>
-        <v>4.75</v>
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -10470,43 +10175,43 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -10548,255 +10253,9 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AT4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5">
-        <v>140</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="str">
-        <f>"4.75"</f>
-        <v>4.75</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>75</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AT6">
         <v>0</v>
       </c>
     </row>
